--- a/WIP/Plans/Veazy_Risk Management_EN.xlsx
+++ b/WIP/Plans/Veazy_Risk Management_EN.xlsx
@@ -61,8 +61,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="hanght - Personal View" guid="{6AAB2365-435B-4727-BB0B-AAE57F204611}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1012" windowHeight="571" activeSheetId="1"/>
     <customWorkbookView name="rau - Personal View" guid="{76BCA86B-7D30-4D0C-A3AD-F5EB7D88CCD8}" mergeInterval="0" personalView="1" maximized="1" windowWidth="796" windowHeight="464" activeSheetId="1"/>
-    <customWorkbookView name="hanght - Personal View" guid="{6AAB2365-435B-4727-BB0B-AAE57F204611}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1012" windowHeight="571" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="236">
   <si>
     <t>a- Risk assessment:</t>
   </si>
@@ -1810,21 +1810,12 @@
     <t>Team members</t>
   </si>
   <si>
-    <t>Assign work to other members, increase effot</t>
-  </si>
-  <si>
     <t>R03</t>
   </si>
   <si>
     <t>Insufficient PM Experience</t>
   </si>
   <si>
-    <t>Schedules do not meet because of shortage of PM experience</t>
-  </si>
-  <si>
-    <t>Project process do not meet the schedules</t>
-  </si>
-  <si>
     <t>PM needs to ask support form the supervisor.</t>
   </si>
   <si>
@@ -1852,9 +1843,6 @@
     <t>Lack of members' experience</t>
   </si>
   <si>
-    <t>Member cannot affort requirements, low quality work</t>
-  </si>
-  <si>
     <t>Train members and run a pilot project before kicking off the main project</t>
   </si>
   <si>
@@ -1864,46 +1852,40 @@
     <t>R06</t>
   </si>
   <si>
-    <t>Members are distracted by the JLPT exam</t>
-  </si>
-  <si>
-    <t>Member cannot concentrate on job, tasks are being delayed.</t>
-  </si>
-  <si>
-    <t>Increase efforts after examination</t>
-  </si>
-  <si>
-    <t>PM schedules project to avoid the examination</t>
-  </si>
-  <si>
     <t>R07</t>
   </si>
   <si>
-    <t>Distributed workspace may affect team spirit</t>
-  </si>
-  <si>
-    <t>Member cannot join some offline meetings due to geography distance</t>
-  </si>
-  <si>
-    <t>PM needs to prepare plan for communicating online</t>
-  </si>
-  <si>
-    <t>Force members to stick together</t>
-  </si>
-  <si>
-    <t>R08</t>
-  </si>
-  <si>
-    <t>SRS change requests are overflowed</t>
-  </si>
-  <si>
     <t>Clear out the requirements and members' abilities at the beginning of the project</t>
   </si>
   <si>
     <t>Pending all change requests, have meeting to clear the requirements again</t>
   </si>
   <si>
-    <t>Rapidly changing or no agreed-upon baseline</t>
+    <t>Assign work to other members, increase effort</t>
+  </si>
+  <si>
+    <t>Member cannot afford requirements, low quality work</t>
+  </si>
+  <si>
+    <t>Member conflict</t>
+  </si>
+  <si>
+    <t>Member can be misunderstand each other</t>
+  </si>
+  <si>
+    <t>Hold team building to increase member's relationship</t>
+  </si>
+  <si>
+    <t>conciliate the conflict</t>
+  </si>
+  <si>
+    <t>Deliverables are over 50% late when meet the deadlines</t>
+  </si>
+  <si>
+    <t>SRS has been changed over 10 times a week after SRS was approved.</t>
+  </si>
+  <si>
+    <t>SRS has been changed too frequently</t>
   </si>
 </sst>
 </file>
@@ -2494,7 +2476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2720,7 +2702,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2875,6 +2856,105 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2889,105 +2969,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3400,20 +3381,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="193" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="163"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="195"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3531,161 +3512,161 @@
     <row r="9" spans="1:18" s="18" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="166" t="s">
+      <c r="C9" s="167" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:18" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="167" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:18" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="168"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:18" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="167" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="164" t="s">
+      <c r="C13" s="196" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="165" t="s">
+      <c r="C14" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="184"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:18" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="166" t="s">
+      <c r="C15" s="167" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="168"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:18" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="167" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="168"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="166" t="s">
+      <c r="C17" s="167" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="168"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="166" t="s">
+      <c r="C18" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3726,16 +3707,16 @@
       <c r="C21" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="166" t="s">
+      <c r="D21" s="167" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="167"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="168"/>
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" s="31" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3744,16 +3725,16 @@
       <c r="C22" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="166" t="s">
+      <c r="D22" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="168"/>
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" s="31" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3761,15 +3742,15 @@
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="166" t="s">
+      <c r="E23" s="167" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" s="31" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3793,15 +3774,15 @@
       <c r="D25" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="170" t="s">
+      <c r="E25" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="172"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="163"/>
       <c r="L25" s="39"/>
     </row>
     <row r="26" spans="1:12" s="46" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -3811,15 +3792,15 @@
       <c r="D26" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="173" t="s">
+      <c r="E26" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="175"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="166"/>
       <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" s="46" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3829,15 +3810,15 @@
       <c r="D27" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="173" t="s">
+      <c r="E27" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="166"/>
       <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" s="46" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3847,15 +3828,15 @@
       <c r="D28" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="173" t="s">
+      <c r="E28" s="164" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="175"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="166"/>
       <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" s="46" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3877,15 +3858,15 @@
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="165" t="s">
+      <c r="E30" s="184" t="s">
         <v>163</v>
       </c>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="165"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="184"/>
       <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12" s="40" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3898,18 +3879,18 @@
       <c r="E31" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="192" t="s">
+      <c r="F31" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="192"/>
-      <c r="H31" s="192" t="s">
+      <c r="G31" s="189"/>
+      <c r="H31" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="192"/>
-      <c r="J31" s="192" t="s">
+      <c r="I31" s="189"/>
+      <c r="J31" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="192"/>
+      <c r="K31" s="189"/>
       <c r="L31" s="39"/>
     </row>
     <row r="32" spans="1:12" s="62" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3922,18 +3903,18 @@
       <c r="E32" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="160" t="s">
+      <c r="F32" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160" t="s">
+      <c r="G32" s="192"/>
+      <c r="H32" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160" t="s">
+      <c r="I32" s="192"/>
+      <c r="J32" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="160"/>
+      <c r="K32" s="192"/>
       <c r="L32" s="61"/>
     </row>
     <row r="33" spans="1:12" s="40" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
@@ -3946,18 +3927,18 @@
       <c r="E33" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="160" t="s">
+      <c r="F33" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160" t="s">
+      <c r="G33" s="192"/>
+      <c r="H33" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160" t="s">
+      <c r="I33" s="192"/>
+      <c r="J33" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="K33" s="160"/>
+      <c r="K33" s="192"/>
       <c r="L33" s="39"/>
     </row>
     <row r="34" spans="1:12" s="40" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3970,18 +3951,18 @@
       <c r="E34" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="176" t="s">
+      <c r="F34" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176" t="s">
+      <c r="G34" s="183"/>
+      <c r="H34" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176" t="s">
+      <c r="I34" s="183"/>
+      <c r="J34" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="K34" s="176"/>
+      <c r="K34" s="183"/>
       <c r="L34" s="39"/>
     </row>
     <row r="35" spans="1:12" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4003,15 +3984,15 @@
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="166" t="s">
+      <c r="E36" s="167" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="165"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="184"/>
+      <c r="J36" s="184"/>
+      <c r="K36" s="184"/>
       <c r="L36" s="34"/>
     </row>
     <row r="37" spans="1:12" s="46" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4034,10 +4015,10 @@
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
       <c r="E38" s="68"/>
-      <c r="F38" s="177" t="s">
+      <c r="F38" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="178"/>
+      <c r="G38" s="186"/>
       <c r="H38" s="69" t="s">
         <v>4</v>
       </c>
@@ -4051,10 +4032,10 @@
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
       <c r="D39" s="70"/>
-      <c r="F39" s="179" t="s">
+      <c r="F39" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="180"/>
+      <c r="G39" s="188"/>
       <c r="H39" s="74" t="s">
         <v>5</v>
       </c>
@@ -4068,10 +4049,10 @@
       <c r="B40" s="70"/>
       <c r="C40" s="70"/>
       <c r="D40" s="70"/>
-      <c r="F40" s="181" t="s">
+      <c r="F40" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="182"/>
+      <c r="G40" s="191"/>
       <c r="H40" s="75" t="s">
         <v>32</v>
       </c>
@@ -4086,10 +4067,10 @@
       <c r="C41" s="70"/>
       <c r="D41" s="70"/>
       <c r="E41" s="70"/>
-      <c r="F41" s="168" t="s">
+      <c r="F41" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="169"/>
+      <c r="G41" s="160"/>
       <c r="H41" s="76" t="s">
         <v>33</v>
       </c>
@@ -4103,15 +4084,15 @@
       <c r="B42" s="48"/>
       <c r="C42" s="50"/>
       <c r="D42" s="48"/>
-      <c r="E42" s="186" t="s">
+      <c r="E42" s="177" t="s">
         <v>143</v>
       </c>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="187"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
+      <c r="K42" s="178"/>
       <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4136,16 +4117,16 @@
       <c r="C44" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="166" t="s">
+      <c r="D44" s="167" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="167"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="168"/>
       <c r="L44" s="30"/>
     </row>
     <row r="45" spans="1:12" s="46" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4155,17 +4136,17 @@
       <c r="D45" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="188" t="s">
+      <c r="E45" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="188"/>
-      <c r="G45" s="188"/>
-      <c r="H45" s="188"/>
-      <c r="I45" s="188"/>
-      <c r="J45" s="188" t="s">
+      <c r="F45" s="179"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="179"/>
+      <c r="J45" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="K45" s="188"/>
+      <c r="K45" s="179"/>
       <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" s="46" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4175,17 +4156,17 @@
       <c r="D46" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="189" t="s">
+      <c r="E46" s="180" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="190"/>
-      <c r="G46" s="190"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="191"/>
-      <c r="J46" s="183" t="s">
+      <c r="F46" s="181"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="181"/>
+      <c r="I46" s="182"/>
+      <c r="J46" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="K46" s="183"/>
+      <c r="K46" s="170"/>
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:12" s="7" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4195,15 +4176,15 @@
       <c r="D47" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="194" t="s">
+      <c r="E47" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="194"/>
-      <c r="G47" s="194"/>
-      <c r="H47" s="194"/>
-      <c r="I47" s="194"/>
-      <c r="J47" s="195"/>
-      <c r="K47" s="195"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="169"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="169"/>
+      <c r="J47" s="171"/>
+      <c r="K47" s="171"/>
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12" s="7" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4213,15 +4194,15 @@
       <c r="D48" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="194" t="s">
+      <c r="E48" s="169" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="194"/>
-      <c r="G48" s="194"/>
-      <c r="H48" s="194"/>
-      <c r="I48" s="194"/>
-      <c r="J48" s="195"/>
-      <c r="K48" s="195"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="169"/>
+      <c r="H48" s="169"/>
+      <c r="I48" s="169"/>
+      <c r="J48" s="171"/>
+      <c r="K48" s="171"/>
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" s="46" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4231,17 +4212,17 @@
       <c r="D49" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="183" t="s">
+      <c r="E49" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="183"/>
-      <c r="G49" s="183"/>
-      <c r="H49" s="183"/>
-      <c r="I49" s="183"/>
-      <c r="J49" s="183" t="s">
+      <c r="F49" s="170"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="170" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="183"/>
+      <c r="K49" s="170"/>
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" s="88" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4249,15 +4230,15 @@
       <c r="B50" s="32"/>
       <c r="C50" s="33"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="184" t="s">
+      <c r="E50" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="F50" s="185"/>
-      <c r="G50" s="185"/>
-      <c r="H50" s="185"/>
-      <c r="I50" s="185"/>
-      <c r="J50" s="185"/>
-      <c r="K50" s="185"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="176"/>
+      <c r="K50" s="176"/>
       <c r="L50" s="87"/>
     </row>
     <row r="51" spans="1:12" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4265,15 +4246,15 @@
       <c r="B51" s="32"/>
       <c r="C51" s="33"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="196" t="s">
+      <c r="E51" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="197"/>
-      <c r="K51" s="197"/>
+      <c r="F51" s="173"/>
+      <c r="G51" s="173"/>
+      <c r="H51" s="173"/>
+      <c r="I51" s="173"/>
+      <c r="J51" s="173"/>
+      <c r="K51" s="173"/>
       <c r="L51" s="87"/>
     </row>
     <row r="52" spans="1:12" s="91" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4281,15 +4262,15 @@
       <c r="B52" s="42"/>
       <c r="C52" s="43"/>
       <c r="D52" s="89"/>
-      <c r="E52" s="193" t="s">
+      <c r="E52" s="174" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="193"/>
-      <c r="G52" s="193"/>
-      <c r="H52" s="193"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="193"/>
-      <c r="K52" s="193"/>
+      <c r="F52" s="174"/>
+      <c r="G52" s="174"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="174"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="174"/>
       <c r="L52" s="90"/>
     </row>
     <row r="53" spans="1:12" s="81" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4298,16 +4279,16 @@
       <c r="C53" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="166" t="s">
+      <c r="D53" s="167" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="167"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="167"/>
+      <c r="E53" s="168"/>
+      <c r="F53" s="168"/>
+      <c r="G53" s="168"/>
+      <c r="H53" s="168"/>
+      <c r="I53" s="168"/>
+      <c r="J53" s="168"/>
+      <c r="K53" s="168"/>
       <c r="L53" s="30"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -4326,6 +4307,46 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="E42:K42"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
     <mergeCell ref="D53:K53"/>
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="E48:I48"/>
@@ -4334,50 +4355,10 @@
     <mergeCell ref="J48:K48"/>
     <mergeCell ref="E51:K51"/>
     <mergeCell ref="J47:K47"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="F31:G31"/>
     <mergeCell ref="E52:K52"/>
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="D44:K44"/>
     <mergeCell ref="E50:K50"/>
-    <mergeCell ref="E42:K42"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="C15:K15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.28000000000000003" right="0.18" top="0.38" bottom="0.63" header="0" footer="0.31"/>
@@ -4393,60 +4374,60 @@
   <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="111" customWidth="1"/>
-    <col min="2" max="2" width="14" style="111" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="111" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="111" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="112" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="112" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="112" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="112" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="111" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="112" customWidth="1"/>
-    <col min="11" max="11" width="8" style="111" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="111" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="111" customWidth="1"/>
-    <col min="14" max="14" width="7" style="111" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="112" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="111"/>
-    <col min="17" max="17" width="9.28515625" style="111" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="112" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="111"/>
-    <col min="20" max="22" width="21.140625" style="111" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" style="111" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" style="111" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" style="111" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" style="111" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="111"/>
+    <col min="1" max="1" width="4.85546875" style="110" customWidth="1"/>
+    <col min="2" max="2" width="14" style="110" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="110" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="110" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="111" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="111" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="111" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="111" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="110" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="111" customWidth="1"/>
+    <col min="11" max="11" width="8" style="110" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="110" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="110" customWidth="1"/>
+    <col min="14" max="14" width="7" style="110" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="111" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="110"/>
+    <col min="17" max="17" width="9.28515625" style="110" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="111" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="110"/>
+    <col min="20" max="22" width="21.140625" style="110" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" style="110" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="110" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" style="110" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" style="110" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="110"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="95" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
     </row>
     <row r="2" spans="1:22" s="96" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E2" s="97"/>
@@ -4462,10 +4443,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="98" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="98" t="s">
-        <v>27</v>
       </c>
       <c r="D3" s="98" t="s">
         <v>169</v>
@@ -4523,17 +4504,17 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="96" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="156" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="155" t="s">
-        <v>213</v>
+      <c r="C4" s="155" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="154" t="s">
+        <v>137</v>
       </c>
       <c r="E4" s="102">
         <v>0.8</v>
@@ -4542,52 +4523,52 @@
         <v>8</v>
       </c>
       <c r="G4" s="102">
-        <f>E4*F4</f>
+        <f t="shared" ref="G4:G10" si="0">E4*F4</f>
         <v>6.4</v>
       </c>
       <c r="H4" s="102">
         <v>8</v>
       </c>
-      <c r="I4" s="157" t="s">
-        <v>214</v>
+      <c r="I4" s="156" t="s">
+        <v>233</v>
       </c>
       <c r="J4" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="158"/>
-      <c r="L4" s="159" t="s">
-        <v>216</v>
+      <c r="K4" s="157"/>
+      <c r="L4" s="158" t="s">
+        <v>213</v>
       </c>
       <c r="M4" s="101" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N4" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="O4" s="154">
+      <c r="O4" s="153">
         <v>42607</v>
       </c>
       <c r="P4" s="101"/>
       <c r="Q4" s="101"/>
-      <c r="R4" s="154">
+      <c r="R4" s="153">
         <v>42607</v>
       </c>
       <c r="S4" s="101"/>
-      <c r="T4" s="108"/>
+      <c r="T4" s="107"/>
       <c r="U4" s="104"/>
     </row>
     <row r="5" spans="1:22" s="96" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="154" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="155" t="s">
-        <v>241</v>
+      <c r="D5" s="154" t="s">
+        <v>235</v>
       </c>
       <c r="E5" s="102">
         <v>0.3</v>
@@ -4596,34 +4577,34 @@
         <v>6</v>
       </c>
       <c r="G5" s="102">
-        <f>E5*F5</f>
+        <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="H5" s="102">
         <v>6</v>
       </c>
-      <c r="I5" s="157" t="s">
-        <v>238</v>
+      <c r="I5" s="156" t="s">
+        <v>234</v>
       </c>
       <c r="J5" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="158"/>
-      <c r="L5" s="159" t="s">
-        <v>239</v>
+      <c r="K5" s="157"/>
+      <c r="L5" s="158" t="s">
+        <v>225</v>
       </c>
       <c r="M5" s="101" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="N5" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="O5" s="154">
-        <v>42611</v>
+      <c r="O5" s="153">
+        <v>42606</v>
       </c>
       <c r="P5" s="101"/>
       <c r="Q5" s="101"/>
-      <c r="R5" s="154">
+      <c r="R5" s="153">
         <v>42611</v>
       </c>
       <c r="S5" s="101"/>
@@ -4638,16 +4619,16 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="96" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="155" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="156" t="s">
+      <c r="A6" s="154" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="154" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="102">
@@ -4657,51 +4638,51 @@
         <v>4</v>
       </c>
       <c r="G6" s="102">
-        <f>E6*F6</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="H6" s="102">
         <v>4</v>
       </c>
-      <c r="I6" s="157" t="s">
+      <c r="I6" s="156" t="s">
         <v>204</v>
       </c>
       <c r="J6" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="158"/>
-      <c r="L6" s="159" t="s">
+      <c r="K6" s="157"/>
+      <c r="L6" s="158" t="s">
         <v>202</v>
       </c>
       <c r="M6" s="101" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="N6" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="154">
-        <v>42607</v>
+      <c r="O6" s="153">
+        <v>42606</v>
       </c>
       <c r="P6" s="101"/>
       <c r="Q6" s="101"/>
-      <c r="R6" s="154">
+      <c r="R6" s="153">
         <v>42607</v>
       </c>
       <c r="S6" s="101"/>
-      <c r="T6" s="108"/>
+      <c r="T6" s="107"/>
       <c r="U6" s="104"/>
     </row>
     <row r="7" spans="1:22" s="96" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="155" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="156" t="s">
+      <c r="A7" s="154" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="155" t="s">
+      <c r="D7" s="154" t="s">
         <v>206</v>
       </c>
       <c r="E7" s="102">
@@ -4711,20 +4692,20 @@
         <v>4</v>
       </c>
       <c r="G7" s="102">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="H7" s="102">
         <v>4</v>
       </c>
-      <c r="I7" s="157" t="s">
+      <c r="I7" s="156" t="s">
         <v>205</v>
       </c>
       <c r="J7" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="159" t="s">
+      <c r="K7" s="157"/>
+      <c r="L7" s="158" t="s">
         <v>207</v>
       </c>
       <c r="M7" s="101" t="s">
@@ -4733,30 +4714,30 @@
       <c r="N7" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="O7" s="154">
+      <c r="O7" s="153">
         <v>42607</v>
       </c>
       <c r="P7" s="101"/>
       <c r="Q7" s="101"/>
-      <c r="R7" s="154">
+      <c r="R7" s="153">
         <v>42607</v>
       </c>
       <c r="S7" s="101"/>
-      <c r="T7" s="108"/>
+      <c r="T7" s="107"/>
       <c r="U7" s="104"/>
     </row>
     <row r="8" spans="1:22" s="96" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="155" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="156" t="s">
+      <c r="A8" s="154" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="155" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="155" t="s">
-        <v>218</v>
+      <c r="D8" s="154" t="s">
+        <v>215</v>
       </c>
       <c r="E8" s="102">
         <v>0.4</v>
@@ -4765,52 +4746,52 @@
         <v>4</v>
       </c>
       <c r="G8" s="102">
-        <f>E8*F8</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="H8" s="102">
         <v>4</v>
       </c>
-      <c r="I8" s="157" t="s">
-        <v>219</v>
+      <c r="I8" s="156" t="s">
+        <v>216</v>
       </c>
       <c r="J8" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="158"/>
-      <c r="L8" s="159" t="s">
-        <v>221</v>
+      <c r="K8" s="157"/>
+      <c r="L8" s="158" t="s">
+        <v>218</v>
       </c>
       <c r="M8" s="101" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N8" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="O8" s="154">
-        <v>42607</v>
+      <c r="O8" s="153">
+        <v>42606</v>
       </c>
       <c r="P8" s="101"/>
       <c r="Q8" s="101"/>
-      <c r="R8" s="154">
+      <c r="R8" s="153">
         <v>42607</v>
       </c>
       <c r="S8" s="101"/>
-      <c r="T8" s="108"/>
+      <c r="T8" s="107"/>
       <c r="U8" s="104"/>
     </row>
     <row r="9" spans="1:22" s="96" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="155" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="156" t="s">
+      <c r="A9" s="154" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="155" t="s">
-        <v>228</v>
+      <c r="D9" s="154" t="s">
+        <v>229</v>
       </c>
       <c r="E9" s="102">
         <v>0.4</v>
@@ -4819,1181 +4800,1147 @@
         <v>4</v>
       </c>
       <c r="G9" s="102">
-        <f>E9*F9</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="H9" s="102">
         <v>4</v>
       </c>
-      <c r="I9" s="157" t="s">
-        <v>229</v>
+      <c r="I9" s="156" t="s">
+        <v>230</v>
       </c>
       <c r="J9" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="158"/>
-      <c r="L9" s="159" t="s">
+      <c r="K9" s="157"/>
+      <c r="L9" s="158" t="s">
         <v>231</v>
       </c>
       <c r="M9" s="101" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N9" s="101" t="s">
-        <v>209</v>
-      </c>
-      <c r="O9" s="154">
-        <v>42609</v>
+        <v>201</v>
+      </c>
+      <c r="O9" s="153">
+        <v>42606</v>
       </c>
       <c r="P9" s="101"/>
       <c r="Q9" s="101"/>
-      <c r="R9" s="154">
+      <c r="R9" s="153">
         <v>42609</v>
       </c>
       <c r="S9" s="101"/>
-      <c r="T9" s="108"/>
+      <c r="T9" s="107"/>
       <c r="U9" s="104"/>
     </row>
     <row r="10" spans="1:22" s="96" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="156" t="s">
+      <c r="A10" s="154" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="156" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="155" t="s">
-        <v>233</v>
+      <c r="C10" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="154" t="s">
+        <v>220</v>
       </c>
       <c r="E10" s="102">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F10" s="102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="102">
-        <f>E10*F10</f>
-        <v>1.6</v>
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
       </c>
       <c r="H10" s="102">
-        <v>4</v>
-      </c>
-      <c r="I10" s="157" t="s">
-        <v>234</v>
+        <v>3</v>
+      </c>
+      <c r="I10" s="156" t="s">
+        <v>228</v>
       </c>
       <c r="J10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="158"/>
-      <c r="L10" s="159" t="s">
-        <v>235</v>
+      <c r="K10" s="157"/>
+      <c r="L10" s="158" t="s">
+        <v>221</v>
       </c>
       <c r="M10" s="101" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="N10" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="O10" s="154">
-        <v>42610</v>
+      <c r="O10" s="153">
+        <v>42608</v>
       </c>
       <c r="P10" s="101"/>
       <c r="Q10" s="101"/>
-      <c r="R10" s="154">
-        <v>42610</v>
+      <c r="R10" s="153">
+        <v>42608</v>
       </c>
       <c r="S10" s="101"/>
-      <c r="T10" s="108"/>
+      <c r="T10" s="107"/>
       <c r="U10" s="104"/>
     </row>
     <row r="11" spans="1:22" s="96" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="155" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="156" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="156" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="155" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="102">
-        <v>0.3</v>
-      </c>
-      <c r="F11" s="102">
-        <v>3</v>
-      </c>
-      <c r="G11" s="102">
-        <f>E11*F11</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H11" s="102">
-        <v>3</v>
-      </c>
-      <c r="I11" s="157" t="s">
-        <v>224</v>
-      </c>
-      <c r="J11" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="158"/>
-      <c r="L11" s="159" t="s">
-        <v>225</v>
-      </c>
-      <c r="M11" s="101" t="s">
-        <v>226</v>
-      </c>
-      <c r="N11" s="101" t="s">
-        <v>209</v>
-      </c>
-      <c r="O11" s="154">
-        <v>42608</v>
-      </c>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="154">
-        <v>42608</v>
-      </c>
-      <c r="S11" s="101"/>
-      <c r="T11" s="108"/>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11" s="107"/>
       <c r="U11" s="104"/>
     </row>
-    <row r="12" spans="1:22" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102">
-        <f t="shared" ref="G7:G12" si="0">E12*F12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="101"/>
+    <row r="12" spans="1:22" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="R12" s="106"/>
       <c r="U12" s="104"/>
     </row>
-    <row r="13" spans="1:22" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="R13" s="107"/>
+    <row r="13" spans="1:22" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="R13" s="106"/>
       <c r="U13" s="104" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="R14" s="107"/>
+    <row r="14" spans="1:22" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="R14" s="106"/>
       <c r="U14" s="104" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="R15" s="107"/>
+      <c r="C15" s="108"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="R15" s="106"/>
       <c r="U15" s="104" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="R16" s="107"/>
+    <row r="16" spans="1:22" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="R16" s="106"/>
       <c r="U16" s="104" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="R17" s="107"/>
+    <row r="17" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="R17" s="106"/>
       <c r="U17" s="104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="R18" s="107"/>
+    <row r="18" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="R18" s="106"/>
       <c r="U18" s="104" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="R19" s="107"/>
+    <row r="19" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="R19" s="106"/>
       <c r="U19" s="104" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="R20" s="107"/>
+    <row r="20" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="R20" s="106"/>
       <c r="U20" s="104" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="R21" s="107"/>
+    <row r="21" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="R21" s="106"/>
       <c r="U21" s="104" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="R22" s="107"/>
+    <row r="22" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="R22" s="106"/>
       <c r="U22" s="104" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="R23" s="107"/>
+    <row r="23" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="R23" s="106"/>
       <c r="U23" s="104" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="R24" s="107"/>
+    <row r="24" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="R24" s="106"/>
       <c r="U24" s="104" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="R25" s="107"/>
+    <row r="25" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="R25" s="106"/>
       <c r="U25" s="104" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="R26" s="107"/>
+    <row r="26" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="R26" s="106"/>
       <c r="U26" s="104" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="R27" s="107"/>
+    <row r="27" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="R27" s="106"/>
       <c r="U27" s="104" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="R28" s="107"/>
+    <row r="28" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="R28" s="106"/>
       <c r="U28" s="104" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="U29" s="110" t="s">
+    <row r="29" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="U29" s="109" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="R30" s="107"/>
-    </row>
-    <row r="31" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="R31" s="107"/>
-    </row>
-    <row r="32" spans="2:21" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="R32" s="107"/>
-    </row>
-    <row r="33" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="R33" s="107"/>
-    </row>
-    <row r="34" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="R34" s="107"/>
-    </row>
-    <row r="35" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="O35" s="107"/>
-      <c r="R35" s="107"/>
-    </row>
-    <row r="36" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="O36" s="107"/>
-      <c r="R36" s="107"/>
-    </row>
-    <row r="37" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="R37" s="107"/>
-    </row>
-    <row r="38" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="O38" s="107"/>
-      <c r="R38" s="107"/>
-    </row>
-    <row r="39" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="O39" s="107"/>
-      <c r="R39" s="107"/>
-    </row>
-    <row r="40" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="O40" s="107"/>
-      <c r="R40" s="107"/>
-    </row>
-    <row r="41" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="O41" s="107"/>
-      <c r="R41" s="107"/>
-    </row>
-    <row r="42" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="O42" s="107"/>
-      <c r="R42" s="107"/>
-    </row>
-    <row r="43" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="O43" s="107"/>
-      <c r="R43" s="107"/>
-    </row>
-    <row r="44" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="O44" s="107"/>
-      <c r="R44" s="107"/>
-    </row>
-    <row r="45" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="O45" s="107"/>
-      <c r="R45" s="107"/>
-    </row>
-    <row r="46" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="O46" s="107"/>
-      <c r="R46" s="107"/>
-    </row>
-    <row r="47" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="O47" s="107"/>
-      <c r="R47" s="107"/>
-    </row>
-    <row r="48" spans="2:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="O48" s="107"/>
-      <c r="R48" s="107"/>
-    </row>
-    <row r="49" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="J49" s="107"/>
-      <c r="O49" s="107"/>
-      <c r="R49" s="107"/>
-    </row>
-    <row r="50" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="J50" s="107"/>
-      <c r="O50" s="107"/>
-      <c r="R50" s="107"/>
-    </row>
-    <row r="51" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="J51" s="107"/>
-      <c r="O51" s="107"/>
-      <c r="R51" s="107"/>
-    </row>
-    <row r="52" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="O52" s="107"/>
-      <c r="R52" s="107"/>
-    </row>
-    <row r="53" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="J53" s="107"/>
-      <c r="O53" s="107"/>
-      <c r="R53" s="107"/>
-    </row>
-    <row r="54" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="J54" s="107"/>
-      <c r="O54" s="107"/>
-      <c r="R54" s="107"/>
-    </row>
-    <row r="55" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="J55" s="107"/>
-      <c r="O55" s="107"/>
-      <c r="R55" s="107"/>
-    </row>
-    <row r="56" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E56" s="107"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="107"/>
-      <c r="H56" s="107"/>
-      <c r="J56" s="107"/>
-      <c r="O56" s="107"/>
-      <c r="R56" s="107"/>
-    </row>
-    <row r="57" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="J57" s="107"/>
-      <c r="O57" s="107"/>
-      <c r="R57" s="107"/>
-    </row>
-    <row r="58" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="J58" s="107"/>
-      <c r="O58" s="107"/>
-      <c r="R58" s="107"/>
-    </row>
-    <row r="59" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="J59" s="107"/>
-      <c r="O59" s="107"/>
-      <c r="R59" s="107"/>
-    </row>
-    <row r="60" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="J60" s="107"/>
-      <c r="O60" s="107"/>
-      <c r="R60" s="107"/>
-    </row>
-    <row r="61" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="O61" s="107"/>
-      <c r="R61" s="107"/>
-    </row>
-    <row r="62" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
-      <c r="J62" s="107"/>
-      <c r="O62" s="107"/>
-      <c r="R62" s="107"/>
-    </row>
-    <row r="63" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="O63" s="107"/>
-      <c r="R63" s="107"/>
-    </row>
-    <row r="64" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="J64" s="107"/>
-      <c r="O64" s="107"/>
-      <c r="R64" s="107"/>
-    </row>
-    <row r="65" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="J65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="R65" s="107"/>
-    </row>
-    <row r="66" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="J66" s="107"/>
-      <c r="O66" s="107"/>
-      <c r="R66" s="107"/>
-    </row>
-    <row r="67" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E67" s="107"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="107"/>
-      <c r="H67" s="107"/>
-      <c r="J67" s="107"/>
-      <c r="O67" s="107"/>
-      <c r="R67" s="107"/>
-    </row>
-    <row r="68" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E68" s="107"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="J68" s="107"/>
-      <c r="O68" s="107"/>
-      <c r="R68" s="107"/>
-    </row>
-    <row r="69" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E69" s="107"/>
-      <c r="F69" s="107"/>
-      <c r="G69" s="107"/>
-      <c r="H69" s="107"/>
-      <c r="J69" s="107"/>
-      <c r="O69" s="107"/>
-      <c r="R69" s="107"/>
-    </row>
-    <row r="70" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E70" s="107"/>
-      <c r="F70" s="107"/>
-      <c r="G70" s="107"/>
-      <c r="H70" s="107"/>
-      <c r="J70" s="107"/>
-      <c r="O70" s="107"/>
-      <c r="R70" s="107"/>
-    </row>
-    <row r="71" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E71" s="107"/>
-      <c r="F71" s="107"/>
-      <c r="G71" s="107"/>
-      <c r="H71" s="107"/>
-      <c r="J71" s="107"/>
-      <c r="O71" s="107"/>
-      <c r="R71" s="107"/>
-    </row>
-    <row r="72" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E72" s="107"/>
-      <c r="F72" s="107"/>
-      <c r="G72" s="107"/>
-      <c r="H72" s="107"/>
-      <c r="J72" s="107"/>
-      <c r="O72" s="107"/>
-      <c r="R72" s="107"/>
-    </row>
-    <row r="73" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E73" s="107"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="107"/>
-      <c r="H73" s="107"/>
-      <c r="J73" s="107"/>
-      <c r="O73" s="107"/>
-      <c r="R73" s="107"/>
-    </row>
-    <row r="74" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E74" s="107"/>
-      <c r="F74" s="107"/>
-      <c r="G74" s="107"/>
-      <c r="H74" s="107"/>
-      <c r="J74" s="107"/>
-      <c r="O74" s="107"/>
-      <c r="R74" s="107"/>
-    </row>
-    <row r="75" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E75" s="107"/>
-      <c r="F75" s="107"/>
-      <c r="G75" s="107"/>
-      <c r="H75" s="107"/>
-      <c r="J75" s="107"/>
-      <c r="O75" s="107"/>
-      <c r="R75" s="107"/>
-    </row>
-    <row r="76" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E76" s="107"/>
-      <c r="F76" s="107"/>
-      <c r="G76" s="107"/>
-      <c r="H76" s="107"/>
-      <c r="J76" s="107"/>
-      <c r="O76" s="107"/>
-      <c r="R76" s="107"/>
-    </row>
-    <row r="77" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="J77" s="107"/>
-      <c r="O77" s="107"/>
-      <c r="R77" s="107"/>
-    </row>
-    <row r="78" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="107"/>
-      <c r="J78" s="107"/>
-      <c r="O78" s="107"/>
-      <c r="R78" s="107"/>
-    </row>
-    <row r="79" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E79" s="107"/>
-      <c r="F79" s="107"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="J79" s="107"/>
-      <c r="O79" s="107"/>
-      <c r="R79" s="107"/>
-    </row>
-    <row r="80" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="J80" s="107"/>
-      <c r="O80" s="107"/>
-      <c r="R80" s="107"/>
-    </row>
-    <row r="81" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E81" s="107"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="107"/>
-      <c r="J81" s="107"/>
-      <c r="O81" s="107"/>
-      <c r="R81" s="107"/>
-    </row>
-    <row r="82" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="107"/>
-      <c r="J82" s="107"/>
-      <c r="O82" s="107"/>
-      <c r="R82" s="107"/>
-    </row>
-    <row r="83" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="J83" s="107"/>
-      <c r="O83" s="107"/>
-      <c r="R83" s="107"/>
-    </row>
-    <row r="84" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E84" s="107"/>
-      <c r="F84" s="107"/>
-      <c r="G84" s="107"/>
-      <c r="H84" s="107"/>
-      <c r="J84" s="107"/>
-      <c r="O84" s="107"/>
-      <c r="R84" s="107"/>
-    </row>
-    <row r="85" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E85" s="107"/>
-      <c r="F85" s="107"/>
-      <c r="G85" s="107"/>
-      <c r="H85" s="107"/>
-      <c r="J85" s="107"/>
-      <c r="O85" s="107"/>
-      <c r="R85" s="107"/>
-    </row>
-    <row r="86" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="107"/>
-      <c r="J86" s="107"/>
-      <c r="O86" s="107"/>
-      <c r="R86" s="107"/>
-    </row>
-    <row r="87" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E87" s="107"/>
-      <c r="F87" s="107"/>
-      <c r="G87" s="107"/>
-      <c r="H87" s="107"/>
-      <c r="J87" s="107"/>
-      <c r="O87" s="107"/>
-      <c r="R87" s="107"/>
-    </row>
-    <row r="88" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E88" s="107"/>
-      <c r="F88" s="107"/>
-      <c r="G88" s="107"/>
-      <c r="H88" s="107"/>
-      <c r="J88" s="107"/>
-      <c r="O88" s="107"/>
-      <c r="R88" s="107"/>
-    </row>
-    <row r="89" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E89" s="107"/>
-      <c r="F89" s="107"/>
-      <c r="G89" s="107"/>
-      <c r="H89" s="107"/>
-      <c r="J89" s="107"/>
-      <c r="O89" s="107"/>
-      <c r="R89" s="107"/>
-    </row>
-    <row r="90" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E90" s="107"/>
-      <c r="F90" s="107"/>
-      <c r="G90" s="107"/>
-      <c r="H90" s="107"/>
-      <c r="J90" s="107"/>
-      <c r="O90" s="107"/>
-      <c r="R90" s="107"/>
-    </row>
-    <row r="91" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E91" s="107"/>
-      <c r="F91" s="107"/>
-      <c r="G91" s="107"/>
-      <c r="H91" s="107"/>
-      <c r="J91" s="107"/>
-      <c r="O91" s="107"/>
-      <c r="R91" s="107"/>
-    </row>
-    <row r="92" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E92" s="107"/>
-      <c r="F92" s="107"/>
-      <c r="G92" s="107"/>
-      <c r="H92" s="107"/>
-      <c r="J92" s="107"/>
-      <c r="O92" s="107"/>
-      <c r="R92" s="107"/>
-    </row>
-    <row r="93" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E93" s="107"/>
-      <c r="F93" s="107"/>
-      <c r="G93" s="107"/>
-      <c r="H93" s="107"/>
-      <c r="J93" s="107"/>
-      <c r="O93" s="107"/>
-      <c r="R93" s="107"/>
-    </row>
-    <row r="94" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E94" s="107"/>
-      <c r="F94" s="107"/>
-      <c r="G94" s="107"/>
-      <c r="H94" s="107"/>
-      <c r="J94" s="107"/>
-      <c r="O94" s="107"/>
-      <c r="R94" s="107"/>
-    </row>
-    <row r="95" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E95" s="107"/>
-      <c r="F95" s="107"/>
-      <c r="G95" s="107"/>
-      <c r="H95" s="107"/>
-      <c r="J95" s="107"/>
-      <c r="O95" s="107"/>
-      <c r="R95" s="107"/>
-    </row>
-    <row r="96" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E96" s="107"/>
-      <c r="F96" s="107"/>
-      <c r="G96" s="107"/>
-      <c r="H96" s="107"/>
-      <c r="J96" s="107"/>
-      <c r="O96" s="107"/>
-      <c r="R96" s="107"/>
-    </row>
-    <row r="97" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E97" s="107"/>
-      <c r="F97" s="107"/>
-      <c r="G97" s="107"/>
-      <c r="H97" s="107"/>
-      <c r="J97" s="107"/>
-      <c r="O97" s="107"/>
-      <c r="R97" s="107"/>
-    </row>
-    <row r="98" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E98" s="107"/>
-      <c r="F98" s="107"/>
-      <c r="G98" s="107"/>
-      <c r="H98" s="107"/>
-      <c r="J98" s="107"/>
-      <c r="O98" s="107"/>
-      <c r="R98" s="107"/>
-    </row>
-    <row r="99" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E99" s="107"/>
-      <c r="F99" s="107"/>
-      <c r="G99" s="107"/>
-      <c r="H99" s="107"/>
-      <c r="J99" s="107"/>
-      <c r="O99" s="107"/>
-      <c r="R99" s="107"/>
-    </row>
-    <row r="100" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E100" s="107"/>
-      <c r="F100" s="107"/>
-      <c r="G100" s="107"/>
-      <c r="H100" s="107"/>
-      <c r="J100" s="107"/>
-      <c r="O100" s="107"/>
-      <c r="R100" s="107"/>
-    </row>
-    <row r="101" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E101" s="107"/>
-      <c r="F101" s="107"/>
-      <c r="G101" s="107"/>
-      <c r="H101" s="107"/>
-      <c r="J101" s="107"/>
-      <c r="O101" s="107"/>
-      <c r="R101" s="107"/>
-    </row>
-    <row r="102" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E102" s="107"/>
-      <c r="F102" s="107"/>
-      <c r="G102" s="107"/>
-      <c r="H102" s="107"/>
-      <c r="J102" s="107"/>
-      <c r="O102" s="107"/>
-      <c r="R102" s="107"/>
-    </row>
-    <row r="103" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E103" s="107"/>
-      <c r="F103" s="107"/>
-      <c r="G103" s="107"/>
-      <c r="H103" s="107"/>
-      <c r="J103" s="107"/>
-      <c r="O103" s="107"/>
-      <c r="R103" s="107"/>
-    </row>
-    <row r="104" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E104" s="107"/>
-      <c r="F104" s="107"/>
-      <c r="G104" s="107"/>
-      <c r="H104" s="107"/>
-      <c r="J104" s="107"/>
-      <c r="O104" s="107"/>
-      <c r="R104" s="107"/>
-    </row>
-    <row r="105" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E105" s="107"/>
-      <c r="F105" s="107"/>
-      <c r="G105" s="107"/>
-      <c r="H105" s="107"/>
-      <c r="J105" s="107"/>
-      <c r="O105" s="107"/>
-      <c r="R105" s="107"/>
-    </row>
-    <row r="106" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E106" s="107"/>
-      <c r="F106" s="107"/>
-      <c r="G106" s="107"/>
-      <c r="H106" s="107"/>
-      <c r="J106" s="107"/>
-      <c r="O106" s="107"/>
-      <c r="R106" s="107"/>
-    </row>
-    <row r="107" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E107" s="107"/>
-      <c r="F107" s="107"/>
-      <c r="G107" s="107"/>
-      <c r="H107" s="107"/>
-      <c r="J107" s="107"/>
-      <c r="O107" s="107"/>
-      <c r="R107" s="107"/>
-    </row>
-    <row r="108" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E108" s="107"/>
-      <c r="F108" s="107"/>
-      <c r="G108" s="107"/>
-      <c r="H108" s="107"/>
-      <c r="J108" s="107"/>
-      <c r="O108" s="107"/>
-      <c r="R108" s="107"/>
-    </row>
-    <row r="109" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E109" s="107"/>
-      <c r="F109" s="107"/>
-      <c r="G109" s="107"/>
-      <c r="H109" s="107"/>
-      <c r="J109" s="107"/>
-      <c r="O109" s="107"/>
-      <c r="R109" s="107"/>
-    </row>
-    <row r="110" spans="5:18" s="106" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E110" s="107"/>
-      <c r="F110" s="107"/>
-      <c r="G110" s="107"/>
-      <c r="H110" s="107"/>
-      <c r="J110" s="107"/>
-      <c r="O110" s="107"/>
-      <c r="R110" s="107"/>
+    <row r="30" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="R30" s="106"/>
+    </row>
+    <row r="31" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="R31" s="106"/>
+    </row>
+    <row r="32" spans="2:21" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="O32" s="106"/>
+      <c r="R32" s="106"/>
+    </row>
+    <row r="33" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="R33" s="106"/>
+    </row>
+    <row r="34" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="R34" s="106"/>
+    </row>
+    <row r="35" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="R35" s="106"/>
+    </row>
+    <row r="36" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="R36" s="106"/>
+    </row>
+    <row r="37" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="O37" s="106"/>
+      <c r="R37" s="106"/>
+    </row>
+    <row r="38" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="O38" s="106"/>
+      <c r="R38" s="106"/>
+    </row>
+    <row r="39" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="O39" s="106"/>
+      <c r="R39" s="106"/>
+    </row>
+    <row r="40" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="R40" s="106"/>
+    </row>
+    <row r="41" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="O41" s="106"/>
+      <c r="R41" s="106"/>
+    </row>
+    <row r="42" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="O42" s="106"/>
+      <c r="R42" s="106"/>
+    </row>
+    <row r="43" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="O43" s="106"/>
+      <c r="R43" s="106"/>
+    </row>
+    <row r="44" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="O44" s="106"/>
+      <c r="R44" s="106"/>
+    </row>
+    <row r="45" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="O45" s="106"/>
+      <c r="R45" s="106"/>
+    </row>
+    <row r="46" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="O46" s="106"/>
+      <c r="R46" s="106"/>
+    </row>
+    <row r="47" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="J47" s="106"/>
+      <c r="O47" s="106"/>
+      <c r="R47" s="106"/>
+    </row>
+    <row r="48" spans="2:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="J48" s="106"/>
+      <c r="O48" s="106"/>
+      <c r="R48" s="106"/>
+    </row>
+    <row r="49" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="O49" s="106"/>
+      <c r="R49" s="106"/>
+    </row>
+    <row r="50" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="J50" s="106"/>
+      <c r="O50" s="106"/>
+      <c r="R50" s="106"/>
+    </row>
+    <row r="51" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="O51" s="106"/>
+      <c r="R51" s="106"/>
+    </row>
+    <row r="52" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="O52" s="106"/>
+      <c r="R52" s="106"/>
+    </row>
+    <row r="53" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="O53" s="106"/>
+      <c r="R53" s="106"/>
+    </row>
+    <row r="54" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="R54" s="106"/>
+    </row>
+    <row r="55" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="O55" s="106"/>
+      <c r="R55" s="106"/>
+    </row>
+    <row r="56" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="O56" s="106"/>
+      <c r="R56" s="106"/>
+    </row>
+    <row r="57" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="O57" s="106"/>
+      <c r="R57" s="106"/>
+    </row>
+    <row r="58" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="O58" s="106"/>
+      <c r="R58" s="106"/>
+    </row>
+    <row r="59" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="O59" s="106"/>
+      <c r="R59" s="106"/>
+    </row>
+    <row r="60" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="O60" s="106"/>
+      <c r="R60" s="106"/>
+    </row>
+    <row r="61" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="J61" s="106"/>
+      <c r="O61" s="106"/>
+      <c r="R61" s="106"/>
+    </row>
+    <row r="62" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="J62" s="106"/>
+      <c r="O62" s="106"/>
+      <c r="R62" s="106"/>
+    </row>
+    <row r="63" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+      <c r="J63" s="106"/>
+      <c r="O63" s="106"/>
+      <c r="R63" s="106"/>
+    </row>
+    <row r="64" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="106"/>
+      <c r="J64" s="106"/>
+      <c r="O64" s="106"/>
+      <c r="R64" s="106"/>
+    </row>
+    <row r="65" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="106"/>
+      <c r="J65" s="106"/>
+      <c r="O65" s="106"/>
+      <c r="R65" s="106"/>
+    </row>
+    <row r="66" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="106"/>
+      <c r="H66" s="106"/>
+      <c r="J66" s="106"/>
+      <c r="O66" s="106"/>
+      <c r="R66" s="106"/>
+    </row>
+    <row r="67" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="J67" s="106"/>
+      <c r="O67" s="106"/>
+      <c r="R67" s="106"/>
+    </row>
+    <row r="68" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="106"/>
+      <c r="H68" s="106"/>
+      <c r="J68" s="106"/>
+      <c r="O68" s="106"/>
+      <c r="R68" s="106"/>
+    </row>
+    <row r="69" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="J69" s="106"/>
+      <c r="O69" s="106"/>
+      <c r="R69" s="106"/>
+    </row>
+    <row r="70" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="J70" s="106"/>
+      <c r="O70" s="106"/>
+      <c r="R70" s="106"/>
+    </row>
+    <row r="71" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E71" s="106"/>
+      <c r="F71" s="106"/>
+      <c r="G71" s="106"/>
+      <c r="H71" s="106"/>
+      <c r="J71" s="106"/>
+      <c r="O71" s="106"/>
+      <c r="R71" s="106"/>
+    </row>
+    <row r="72" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E72" s="106"/>
+      <c r="F72" s="106"/>
+      <c r="G72" s="106"/>
+      <c r="H72" s="106"/>
+      <c r="J72" s="106"/>
+      <c r="O72" s="106"/>
+      <c r="R72" s="106"/>
+    </row>
+    <row r="73" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E73" s="106"/>
+      <c r="F73" s="106"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106"/>
+      <c r="J73" s="106"/>
+      <c r="O73" s="106"/>
+      <c r="R73" s="106"/>
+    </row>
+    <row r="74" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E74" s="106"/>
+      <c r="F74" s="106"/>
+      <c r="G74" s="106"/>
+      <c r="H74" s="106"/>
+      <c r="J74" s="106"/>
+      <c r="O74" s="106"/>
+      <c r="R74" s="106"/>
+    </row>
+    <row r="75" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E75" s="106"/>
+      <c r="F75" s="106"/>
+      <c r="G75" s="106"/>
+      <c r="H75" s="106"/>
+      <c r="J75" s="106"/>
+      <c r="O75" s="106"/>
+      <c r="R75" s="106"/>
+    </row>
+    <row r="76" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E76" s="106"/>
+      <c r="F76" s="106"/>
+      <c r="G76" s="106"/>
+      <c r="H76" s="106"/>
+      <c r="J76" s="106"/>
+      <c r="O76" s="106"/>
+      <c r="R76" s="106"/>
+    </row>
+    <row r="77" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E77" s="106"/>
+      <c r="F77" s="106"/>
+      <c r="G77" s="106"/>
+      <c r="H77" s="106"/>
+      <c r="J77" s="106"/>
+      <c r="O77" s="106"/>
+      <c r="R77" s="106"/>
+    </row>
+    <row r="78" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E78" s="106"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106"/>
+      <c r="H78" s="106"/>
+      <c r="J78" s="106"/>
+      <c r="O78" s="106"/>
+      <c r="R78" s="106"/>
+    </row>
+    <row r="79" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E79" s="106"/>
+      <c r="F79" s="106"/>
+      <c r="G79" s="106"/>
+      <c r="H79" s="106"/>
+      <c r="J79" s="106"/>
+      <c r="O79" s="106"/>
+      <c r="R79" s="106"/>
+    </row>
+    <row r="80" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E80" s="106"/>
+      <c r="F80" s="106"/>
+      <c r="G80" s="106"/>
+      <c r="H80" s="106"/>
+      <c r="J80" s="106"/>
+      <c r="O80" s="106"/>
+      <c r="R80" s="106"/>
+    </row>
+    <row r="81" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E81" s="106"/>
+      <c r="F81" s="106"/>
+      <c r="G81" s="106"/>
+      <c r="H81" s="106"/>
+      <c r="J81" s="106"/>
+      <c r="O81" s="106"/>
+      <c r="R81" s="106"/>
+    </row>
+    <row r="82" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E82" s="106"/>
+      <c r="F82" s="106"/>
+      <c r="G82" s="106"/>
+      <c r="H82" s="106"/>
+      <c r="J82" s="106"/>
+      <c r="O82" s="106"/>
+      <c r="R82" s="106"/>
+    </row>
+    <row r="83" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E83" s="106"/>
+      <c r="F83" s="106"/>
+      <c r="G83" s="106"/>
+      <c r="H83" s="106"/>
+      <c r="J83" s="106"/>
+      <c r="O83" s="106"/>
+      <c r="R83" s="106"/>
+    </row>
+    <row r="84" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E84" s="106"/>
+      <c r="F84" s="106"/>
+      <c r="G84" s="106"/>
+      <c r="H84" s="106"/>
+      <c r="J84" s="106"/>
+      <c r="O84" s="106"/>
+      <c r="R84" s="106"/>
+    </row>
+    <row r="85" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E85" s="106"/>
+      <c r="F85" s="106"/>
+      <c r="G85" s="106"/>
+      <c r="H85" s="106"/>
+      <c r="J85" s="106"/>
+      <c r="O85" s="106"/>
+      <c r="R85" s="106"/>
+    </row>
+    <row r="86" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E86" s="106"/>
+      <c r="F86" s="106"/>
+      <c r="G86" s="106"/>
+      <c r="H86" s="106"/>
+      <c r="J86" s="106"/>
+      <c r="O86" s="106"/>
+      <c r="R86" s="106"/>
+    </row>
+    <row r="87" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E87" s="106"/>
+      <c r="F87" s="106"/>
+      <c r="G87" s="106"/>
+      <c r="H87" s="106"/>
+      <c r="J87" s="106"/>
+      <c r="O87" s="106"/>
+      <c r="R87" s="106"/>
+    </row>
+    <row r="88" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E88" s="106"/>
+      <c r="F88" s="106"/>
+      <c r="G88" s="106"/>
+      <c r="H88" s="106"/>
+      <c r="J88" s="106"/>
+      <c r="O88" s="106"/>
+      <c r="R88" s="106"/>
+    </row>
+    <row r="89" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E89" s="106"/>
+      <c r="F89" s="106"/>
+      <c r="G89" s="106"/>
+      <c r="H89" s="106"/>
+      <c r="J89" s="106"/>
+      <c r="O89" s="106"/>
+      <c r="R89" s="106"/>
+    </row>
+    <row r="90" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E90" s="106"/>
+      <c r="F90" s="106"/>
+      <c r="G90" s="106"/>
+      <c r="H90" s="106"/>
+      <c r="J90" s="106"/>
+      <c r="O90" s="106"/>
+      <c r="R90" s="106"/>
+    </row>
+    <row r="91" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E91" s="106"/>
+      <c r="F91" s="106"/>
+      <c r="G91" s="106"/>
+      <c r="H91" s="106"/>
+      <c r="J91" s="106"/>
+      <c r="O91" s="106"/>
+      <c r="R91" s="106"/>
+    </row>
+    <row r="92" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E92" s="106"/>
+      <c r="F92" s="106"/>
+      <c r="G92" s="106"/>
+      <c r="H92" s="106"/>
+      <c r="J92" s="106"/>
+      <c r="O92" s="106"/>
+      <c r="R92" s="106"/>
+    </row>
+    <row r="93" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E93" s="106"/>
+      <c r="F93" s="106"/>
+      <c r="G93" s="106"/>
+      <c r="H93" s="106"/>
+      <c r="J93" s="106"/>
+      <c r="O93" s="106"/>
+      <c r="R93" s="106"/>
+    </row>
+    <row r="94" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E94" s="106"/>
+      <c r="F94" s="106"/>
+      <c r="G94" s="106"/>
+      <c r="H94" s="106"/>
+      <c r="J94" s="106"/>
+      <c r="O94" s="106"/>
+      <c r="R94" s="106"/>
+    </row>
+    <row r="95" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E95" s="106"/>
+      <c r="F95" s="106"/>
+      <c r="G95" s="106"/>
+      <c r="H95" s="106"/>
+      <c r="J95" s="106"/>
+      <c r="O95" s="106"/>
+      <c r="R95" s="106"/>
+    </row>
+    <row r="96" spans="5:18" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E96" s="106"/>
+      <c r="F96" s="106"/>
+      <c r="G96" s="106"/>
+      <c r="H96" s="106"/>
+      <c r="J96" s="106"/>
+      <c r="O96" s="106"/>
+      <c r="R96" s="106"/>
+    </row>
+    <row r="97" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E97" s="106"/>
+      <c r="F97" s="106"/>
+      <c r="G97" s="106"/>
+      <c r="H97" s="106"/>
+      <c r="J97" s="106"/>
+      <c r="O97" s="106"/>
+      <c r="R97" s="106"/>
+    </row>
+    <row r="98" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E98" s="106"/>
+      <c r="F98" s="106"/>
+      <c r="G98" s="106"/>
+      <c r="H98" s="106"/>
+      <c r="J98" s="106"/>
+      <c r="O98" s="106"/>
+      <c r="R98" s="106"/>
+    </row>
+    <row r="99" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E99" s="106"/>
+      <c r="F99" s="106"/>
+      <c r="G99" s="106"/>
+      <c r="H99" s="106"/>
+      <c r="J99" s="106"/>
+      <c r="O99" s="106"/>
+      <c r="R99" s="106"/>
+    </row>
+    <row r="100" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E100" s="106"/>
+      <c r="F100" s="106"/>
+      <c r="G100" s="106"/>
+      <c r="H100" s="106"/>
+      <c r="J100" s="106"/>
+      <c r="O100" s="106"/>
+      <c r="R100" s="106"/>
+    </row>
+    <row r="101" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E101" s="106"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="106"/>
+      <c r="H101" s="106"/>
+      <c r="J101" s="106"/>
+      <c r="O101" s="106"/>
+      <c r="R101" s="106"/>
+    </row>
+    <row r="102" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E102" s="106"/>
+      <c r="F102" s="106"/>
+      <c r="G102" s="106"/>
+      <c r="H102" s="106"/>
+      <c r="J102" s="106"/>
+      <c r="O102" s="106"/>
+      <c r="R102" s="106"/>
+    </row>
+    <row r="103" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E103" s="106"/>
+      <c r="F103" s="106"/>
+      <c r="G103" s="106"/>
+      <c r="H103" s="106"/>
+      <c r="J103" s="106"/>
+      <c r="O103" s="106"/>
+      <c r="R103" s="106"/>
+    </row>
+    <row r="104" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E104" s="106"/>
+      <c r="F104" s="106"/>
+      <c r="G104" s="106"/>
+      <c r="H104" s="106"/>
+      <c r="J104" s="106"/>
+      <c r="O104" s="106"/>
+      <c r="R104" s="106"/>
+    </row>
+    <row r="105" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E105" s="106"/>
+      <c r="F105" s="106"/>
+      <c r="G105" s="106"/>
+      <c r="H105" s="106"/>
+      <c r="J105" s="106"/>
+      <c r="O105" s="106"/>
+      <c r="R105" s="106"/>
+    </row>
+    <row r="106" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E106" s="106"/>
+      <c r="F106" s="106"/>
+      <c r="G106" s="106"/>
+      <c r="H106" s="106"/>
+      <c r="J106" s="106"/>
+      <c r="O106" s="106"/>
+      <c r="R106" s="106"/>
+    </row>
+    <row r="107" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E107" s="106"/>
+      <c r="F107" s="106"/>
+      <c r="G107" s="106"/>
+      <c r="H107" s="106"/>
+      <c r="J107" s="106"/>
+      <c r="O107" s="106"/>
+      <c r="R107" s="106"/>
+    </row>
+    <row r="108" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E108" s="106"/>
+      <c r="F108" s="106"/>
+      <c r="G108" s="106"/>
+      <c r="H108" s="106"/>
+      <c r="J108" s="106"/>
+      <c r="O108" s="106"/>
+      <c r="R108" s="106"/>
+    </row>
+    <row r="109" spans="1:19" s="105" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E109" s="106"/>
+      <c r="F109" s="106"/>
+      <c r="G109" s="106"/>
+      <c r="H109" s="106"/>
+      <c r="J109" s="106"/>
+      <c r="O109" s="106"/>
+      <c r="R109" s="106"/>
+    </row>
+    <row r="110" spans="1:19" s="105" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="110"/>
+      <c r="B110" s="110"/>
+      <c r="C110" s="110"/>
+      <c r="D110" s="110"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="111"/>
+      <c r="H110" s="111"/>
+      <c r="I110" s="110"/>
+      <c r="J110" s="111"/>
+      <c r="K110" s="110"/>
+      <c r="L110" s="110"/>
+      <c r="M110" s="110"/>
+      <c r="N110" s="110"/>
+      <c r="O110" s="111"/>
+      <c r="P110" s="110"/>
+      <c r="Q110" s="110"/>
+      <c r="R110" s="111"/>
+      <c r="S110" s="110"/>
     </row>
   </sheetData>
   <sortState ref="A4:S11">
     <sortCondition descending="1" ref="H4:H11"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{76BCA86B-7D30-4D0C-A3AD-F5EB7D88CCD8}" showPageBreaks="1" showRuler="0" topLeftCell="O1">
-      <selection activeCell="R3" sqref="R3"/>
+    <customSheetView guid="{6AAB2365-435B-4727-BB0B-AAE57F204611}" showRuler="0" topLeftCell="F1">
+      <selection activeCell="J14" sqref="J14"/>
       <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;L&amp;8 01fe-BM/PM/HDCV/FSOFT v1/0</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{6AAB2365-435B-4727-BB0B-AAE57F204611}" showRuler="0" topLeftCell="F1">
-      <selection activeCell="J14" sqref="J14"/>
+    <customSheetView guid="{76BCA86B-7D30-4D0C-A3AD-F5EB7D88CCD8}" showPageBreaks="1" showRuler="0" topLeftCell="O1">
+      <selection activeCell="R3" sqref="R3"/>
       <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0">
@@ -6005,21 +5952,18 @@
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J12">
-      <formula1>"Open, Occur, Close"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S4:S12">
+  <dataValidations count="5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S4:S10">
       <formula1>$V$5:$V$5</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P4:P12"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J4:J11">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P4:P10"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J4:J10">
       <formula1>"Open, Occured, Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
       <formula1>$T$3:$T$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10">
       <formula1>$U$3:$U$29</formula1>
     </dataValidation>
   </dataValidations>
@@ -6047,1363 +5991,1363 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="151" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="151" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="151" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" style="151" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="152" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="151" customWidth="1"/>
-    <col min="7" max="12" width="5.42578125" style="151" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="151"/>
+    <col min="1" max="1" width="3.85546875" style="150" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="150" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="150" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="150" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="151" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="150" customWidth="1"/>
+    <col min="7" max="12" width="5.42578125" style="150" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="150"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="115" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113"/>
-      <c r="B1" s="114" t="s">
+    <row r="1" spans="1:12" s="114" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="112"/>
+      <c r="B1" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
-    </row>
-    <row r="2" spans="1:12" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-    </row>
-    <row r="3" spans="1:12" s="119" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="201" t="s">
+      <c r="D1" s="115"/>
+      <c r="E1" s="116"/>
+    </row>
+    <row r="2" spans="1:12" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+    </row>
+    <row r="3" spans="1:12" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="199" t="s">
+      <c r="C3" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="199" t="s">
+      <c r="E3" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="199" t="s">
+      <c r="F3" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="203" t="s">
+      <c r="G3" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="204"/>
-    </row>
-    <row r="4" spans="1:12" s="122" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="202"/>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="120" t="s">
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="203"/>
+    </row>
+    <row r="4" spans="1:12" s="121" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="201"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="120" t="s">
+      <c r="H4" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="120" t="s">
+      <c r="I4" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="120" t="s">
+      <c r="J4" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="120" t="s">
+      <c r="K4" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="L4" s="120" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="130" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="123">
+    <row r="5" spans="1:12" s="129" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="122">
         <v>1</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="E5" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="128">
+      <c r="F5" s="127">
         <v>1</v>
       </c>
-      <c r="G5" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="130" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A6" s="123">
+      <c r="G5" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="129" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="122">
         <v>2</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="127" t="s">
+      <c r="E6" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="127">
         <v>2</v>
       </c>
-      <c r="G6" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="130" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A7" s="123">
+      <c r="G6" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="129" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="122">
         <v>3</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="128">
+      <c r="F7" s="127">
         <v>2</v>
       </c>
-      <c r="G7" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="130" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="123">
+      <c r="G7" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="129" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="122">
         <v>4</v>
       </c>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="127" t="s">
+      <c r="E8" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="127">
         <v>2</v>
       </c>
-      <c r="G8" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="130" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="123">
+      <c r="G8" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="129" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="122">
         <v>5</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="127" t="s">
+      <c r="E9" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="127">
         <v>3</v>
       </c>
-      <c r="G9" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="130" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="123">
+      <c r="G9" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="129" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="122">
         <v>6</v>
       </c>
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="127">
         <v>3</v>
       </c>
-      <c r="G10" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="130" customFormat="1" ht="120" x14ac:dyDescent="0.2">
-      <c r="A11" s="123">
+      <c r="G10" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="129" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A11" s="122">
         <v>7</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="128">
+      <c r="F11" s="127">
         <v>4</v>
       </c>
-      <c r="G11" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="130" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="123">
+      <c r="G11" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="129" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="122">
         <v>8</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="128">
+      <c r="F12" s="127">
         <v>5</v>
       </c>
-      <c r="G12" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="130" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="123">
+      <c r="G12" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="129" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="122">
         <v>9</v>
       </c>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="124" t="s">
+      <c r="D13" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="127" t="s">
+      <c r="E13" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="128">
+      <c r="F13" s="127">
         <v>6</v>
       </c>
-      <c r="G13" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="130" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="123">
+      <c r="G13" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="129" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="122">
         <v>10</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="127" t="s">
+      <c r="E14" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="127">
         <v>7</v>
       </c>
-      <c r="G14" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="130" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="123">
+      <c r="G14" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="129" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="122">
         <v>11</v>
       </c>
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="124" t="s">
+      <c r="D15" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="127" t="s">
+      <c r="E15" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="127">
         <v>8</v>
       </c>
-      <c r="G15" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="130" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="123">
+      <c r="G15" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="129" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="122">
         <v>12</v>
       </c>
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="124" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="127">
         <v>8</v>
       </c>
-      <c r="G16" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="130" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="123">
+      <c r="G16" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="129" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="122">
         <v>13</v>
       </c>
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="124" t="s">
+      <c r="D17" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="127"/>
-      <c r="F17" s="128">
+      <c r="E17" s="126"/>
+      <c r="F17" s="127">
         <v>9</v>
       </c>
-      <c r="G17" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="130" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="123">
+      <c r="G17" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="129" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="122">
         <v>14</v>
       </c>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="124" t="s">
+      <c r="D18" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="127" t="s">
+      <c r="E18" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="128">
+      <c r="F18" s="127">
         <v>10</v>
       </c>
-      <c r="G18" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="136" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="131">
+      <c r="G18" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="135" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="130">
         <v>15</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="132" t="s">
+      <c r="D19" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="134"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="130" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="137">
-        <v>16</v>
-      </c>
-      <c r="B20" s="132" t="s">
+      <c r="F19" s="133"/>
+      <c r="G19" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="129" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="136">
+        <v>16</v>
+      </c>
+      <c r="B20" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="139" t="s">
+      <c r="D20" s="137"/>
+      <c r="E20" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="130" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131">
+      <c r="F20" s="139"/>
+      <c r="G20" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="129" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="130">
         <v>17</v>
       </c>
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139" t="s">
+      <c r="D21" s="137"/>
+      <c r="E21" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="130" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="137">
+      <c r="F21" s="139"/>
+      <c r="G21" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="129" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="136">
         <v>18</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139" t="s">
+      <c r="D22" s="137"/>
+      <c r="E22" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="130" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="131">
+      <c r="F22" s="139"/>
+      <c r="G22" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="129" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="130">
         <v>19</v>
       </c>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="138"/>
-      <c r="E23" s="139" t="s">
+      <c r="D23" s="137"/>
+      <c r="E23" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="130" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="137">
+      <c r="F23" s="139"/>
+      <c r="G23" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="129" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="136">
         <v>20</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="C24" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="138"/>
-      <c r="E24" s="139" t="s">
+      <c r="D24" s="137"/>
+      <c r="E24" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="130" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A25" s="131">
+      <c r="F24" s="139"/>
+      <c r="G24" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="129" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A25" s="130">
         <v>21</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="133" t="s">
+      <c r="C25" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="138"/>
-      <c r="E25" s="139" t="s">
+      <c r="D25" s="137"/>
+      <c r="E25" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="130" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137">
+      <c r="F25" s="139"/>
+      <c r="G25" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="129" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="136">
         <v>22</v>
       </c>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="138"/>
-      <c r="E26" s="139" t="s">
+      <c r="D26" s="137"/>
+      <c r="E26" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="130" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="131">
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="129" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="130">
         <v>23</v>
       </c>
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="133" t="s">
+      <c r="C27" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="138"/>
-      <c r="E27" s="139" t="s">
+      <c r="D27" s="137"/>
+      <c r="E27" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="130" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="137">
+      <c r="F27" s="139"/>
+      <c r="G27" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="129" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="136">
         <v>24</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="133" t="s">
+      <c r="C28" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="139" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="130" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="131">
+      <c r="F28" s="139"/>
+      <c r="G28" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="129" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="130">
         <v>25</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="138"/>
-      <c r="E29" s="139" t="s">
+      <c r="D29" s="137"/>
+      <c r="E29" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="130" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="137">
+      <c r="F29" s="139"/>
+      <c r="G29" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="129" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="136">
         <v>26</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="133" t="s">
+      <c r="C30" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="138"/>
-      <c r="E30" s="139" t="s">
+      <c r="D30" s="137"/>
+      <c r="E30" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="130" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="131">
+      <c r="F30" s="139"/>
+      <c r="G30" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="129" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A31" s="130">
         <v>27</v>
       </c>
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="133" t="s">
+      <c r="C31" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="138"/>
-      <c r="E31" s="139" t="s">
+      <c r="D31" s="137"/>
+      <c r="E31" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="130" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="137">
+      <c r="F31" s="139"/>
+      <c r="G31" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="129" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="136">
         <v>28</v>
       </c>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="142" t="s">
+      <c r="C32" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="D32" s="138"/>
-      <c r="E32" s="139" t="s">
+      <c r="D32" s="137"/>
+      <c r="E32" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="130" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="131">
+      <c r="F32" s="139"/>
+      <c r="G32" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="129" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="130">
         <v>29</v>
       </c>
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="133" t="s">
+      <c r="C33" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="138"/>
-      <c r="E33" s="139" t="s">
+      <c r="D33" s="137"/>
+      <c r="E33" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="130" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="137">
+      <c r="F33" s="139"/>
+      <c r="G33" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="129" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="136">
         <v>30</v>
       </c>
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="133" t="s">
+      <c r="C34" s="132" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="138"/>
-      <c r="E34" s="139" t="s">
+      <c r="D34" s="137"/>
+      <c r="E34" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="140"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="130" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="131">
+      <c r="F34" s="139"/>
+      <c r="G34" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="129" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="130">
         <v>31</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="133" t="s">
+      <c r="C35" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="138"/>
-      <c r="E35" s="139" t="s">
+      <c r="D35" s="137"/>
+      <c r="E35" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="130" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="137">
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="129" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="136">
         <v>32</v>
       </c>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="133" t="s">
+      <c r="C36" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="138"/>
-      <c r="E36" s="139" t="s">
+      <c r="D36" s="137"/>
+      <c r="E36" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="140"/>
-      <c r="G36" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="140"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="130" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="131">
+      <c r="F36" s="139"/>
+      <c r="G36" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="129" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="130">
         <v>33</v>
       </c>
-      <c r="B37" s="132" t="s">
+      <c r="B37" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="133" t="s">
+      <c r="C37" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="138"/>
-      <c r="E37" s="139" t="s">
+      <c r="D37" s="137"/>
+      <c r="E37" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="130" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="143">
+      <c r="F37" s="139"/>
+      <c r="G37" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="129" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="142">
         <v>34</v>
       </c>
-      <c r="B38" s="144" t="s">
+      <c r="B38" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="145" t="s">
+      <c r="C38" s="144" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="146"/>
-      <c r="E38" s="147" t="s">
+      <c r="D38" s="145"/>
+      <c r="E38" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="148" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="150" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="119"/>
-    </row>
-    <row r="40" spans="1:12" s="150" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="119"/>
-    </row>
-    <row r="41" spans="1:12" s="150" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="119"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="147" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="149" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="118"/>
+    </row>
+    <row r="40" spans="1:12" s="149" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="118"/>
+    </row>
+    <row r="41" spans="1:12" s="149" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="118"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="150"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="109"/>
+      <c r="A42" s="149"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="108"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="108"/>
-      <c r="C43" s="109"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="108"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="108"/>
-      <c r="C44" s="109"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="108"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="108"/>
-      <c r="C45" s="109"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="108"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="108"/>
-      <c r="C46" s="109"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="108"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="108"/>
-      <c r="C47" s="109"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="108"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="108"/>
-      <c r="C49" s="109"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="108"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="153"/>
-      <c r="C50" s="109"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="108"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="153"/>
-      <c r="C51" s="109"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="108"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="153"/>
-      <c r="C52" s="109"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="108"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="153"/>
-      <c r="C53" s="109"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="108"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="153"/>
-      <c r="C54" s="109"/>
+      <c r="B54" s="152"/>
+      <c r="C54" s="108"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="153"/>
-      <c r="C55" s="109"/>
+      <c r="B55" s="152"/>
+      <c r="C55" s="108"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="153"/>
-      <c r="C56" s="109"/>
+      <c r="B56" s="152"/>
+      <c r="C56" s="108"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="153"/>
-      <c r="C57" s="109"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="108"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="153"/>
-      <c r="C58" s="109"/>
+      <c r="B58" s="152"/>
+      <c r="C58" s="108"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="153"/>
-      <c r="C59" s="109"/>
+      <c r="B59" s="152"/>
+      <c r="C59" s="108"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="153"/>
-      <c r="C60" s="109"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="108"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="153"/>
-      <c r="C61" s="109"/>
+      <c r="B61" s="152"/>
+      <c r="C61" s="108"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="153"/>
-      <c r="C62" s="109"/>
+      <c r="B62" s="152"/>
+      <c r="C62" s="108"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="153"/>
-      <c r="C63" s="109"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="108"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="153"/>
-      <c r="C64" s="109"/>
+      <c r="B64" s="152"/>
+      <c r="C64" s="108"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="153"/>
-      <c r="C65" s="109"/>
+      <c r="B65" s="152"/>
+      <c r="C65" s="108"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="153"/>
-      <c r="C66" s="109"/>
+      <c r="B66" s="152"/>
+      <c r="C66" s="108"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="153"/>
-      <c r="C67" s="109"/>
+      <c r="B67" s="152"/>
+      <c r="C67" s="108"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="153"/>
-      <c r="C68" s="109"/>
+      <c r="B68" s="152"/>
+      <c r="C68" s="108"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="153"/>
-      <c r="C69" s="109"/>
+      <c r="B69" s="152"/>
+      <c r="C69" s="108"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="153"/>
-      <c r="C70" s="109"/>
+      <c r="B70" s="152"/>
+      <c r="C70" s="108"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="153"/>
-      <c r="C71" s="109"/>
+      <c r="B71" s="152"/>
+      <c r="C71" s="108"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="153"/>
-      <c r="C72" s="109"/>
+      <c r="B72" s="152"/>
+      <c r="C72" s="108"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="153"/>
-      <c r="C73" s="109"/>
+      <c r="B73" s="152"/>
+      <c r="C73" s="108"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="153"/>
-      <c r="C74" s="109"/>
+      <c r="B74" s="152"/>
+      <c r="C74" s="108"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="153"/>
-      <c r="C75" s="109"/>
+      <c r="B75" s="152"/>
+      <c r="C75" s="108"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="153"/>
-      <c r="C76" s="109"/>
+      <c r="B76" s="152"/>
+      <c r="C76" s="108"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:L38"/>
@@ -7426,6 +7370,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="253d622f20ce6cf415dd75a347d4701d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6913b3c7c53e7d5478d1a53b351a6d1" ns2:_="">
     <xsd:import namespace="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
@@ -7485,15 +7438,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7503,6 +7447,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DAA1354-1B65-433B-8B6C-AAF4E176B712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF51A16E-A571-42E9-99B6-47CEA8978068}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7519,14 +7471,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DAA1354-1B65-433B-8B6C-AAF4E176B712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B043CF22-A5C1-46DB-8CFA-812DAA4BD4DD}">
   <ds:schemaRefs>
@@ -7538,6 +7482,7 @@
     <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>